--- a/Windows/Exercici 2.1checklist.xlsx
+++ b/Windows/Exercici 2.1checklist.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="19200" windowHeight="10740" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -22,201 +29,991 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Tasca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Si / No)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sortir a fer volta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veure TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>Tasca</t>
+  </si>
+  <si>
+    <t>(Si / No)</t>
+  </si>
+  <si>
+    <t>Sortir a fer volta</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Veure TV</t>
+  </si>
+  <si>
+    <t>Estudiar</t>
+  </si>
+  <si>
+    <t>Deures</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">La cama </t>
   </si>
   <si>
-    <t xml:space="preserve">Cortar pelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
+    <t>Cortar pelo</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t xml:space="preserve"> (Si)</t>
   </si>
   <si>
-    <t xml:space="preserve">(No)</t>
+    <t>(No)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -266,116 +1063,113 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <f aca="false">COUNTA(B2:B7)</f>
+      <c r="B9" s="2">
+        <f>COUNTA(B2:B7)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <f aca="false">COUNTIF(B2:B7,"Sí")</f>
+      <c r="B10" s="2">
+        <f>COUNTIF(B2:B7,"Sí")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <f aca="false">COUNTIF(B2:B7,"No")</f>
+      <c r="B11" s="2">
+        <f>COUNTIF(B2:B7,"No")</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B7" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B1:B7">
       <formula1>"Sí,,,No,"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
